--- a/jpcore-r4b/develop/CodeSystem-jp-observation-bodymeasurement-category-cs.xlsx
+++ b/jpcore-r4b/develop/CodeSystem-jp-observation-bodymeasurement-category-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation（身体計測）で使用する分類のコード</t>
+    <t>Observation（身体計測）で使用する分類のコード　（出典：看護実践用語標準マスターの概要＜看護行為編＞Ver. 3. 6）</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright MEDIS-DC 医療情報システム開発センター</t>
   </si>
   <si>
     <t>Case Sensitive</t>
